--- a/test/files/multiple_file_language_option_conversion/BFR5-Selection-v2-jef.xlsx
+++ b/test/files/multiple_file_language_option_conversion/BFR5-Selection-v2-jef.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="293">
   <si>
     <t>type</t>
   </si>
@@ -787,6 +787,153 @@
   </si>
   <si>
     <t>sel-bfr5-v2</t>
+  </si>
+  <si>
+    <t>level1_list</t>
+  </si>
+  <si>
+    <t>location_1a</t>
+  </si>
+  <si>
+    <t>Location 1a</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1a</t>
+  </si>
+  <si>
+    <t>location_1b</t>
+  </si>
+  <si>
+    <t>Location 1b</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1b</t>
+  </si>
+  <si>
+    <t>location_1c</t>
+  </si>
+  <si>
+    <t>Location 1c</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1c</t>
+  </si>
+  <si>
+    <t>location_1d</t>
+  </si>
+  <si>
+    <t>Location 1d</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1d</t>
+  </si>
+  <si>
+    <t>location_1e</t>
+  </si>
+  <si>
+    <t>Location 1e</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1e</t>
+  </si>
+  <si>
+    <t>level2_list</t>
+  </si>
+  <si>
+    <t>location_2a</t>
+  </si>
+  <si>
+    <t>location_2b</t>
+  </si>
+  <si>
+    <t>location_2c</t>
+  </si>
+  <si>
+    <t>location_2d</t>
+  </si>
+  <si>
+    <t>location_2e</t>
+  </si>
+  <si>
+    <t>level3_list</t>
+  </si>
+  <si>
+    <t>location_3a</t>
+  </si>
+  <si>
+    <t>location_3b</t>
+  </si>
+  <si>
+    <t>location_3c</t>
+  </si>
+  <si>
+    <t>location_3d</t>
+  </si>
+  <si>
+    <t>location_3e</t>
+  </si>
+  <si>
+    <t>EA_list</t>
+  </si>
+  <si>
+    <t>EA_location_1</t>
+  </si>
+  <si>
+    <t>ZD</t>
+  </si>
+  <si>
+    <t>EA_location_2</t>
+  </si>
+  <si>
+    <t>EA_location_3</t>
+  </si>
+  <si>
+    <t>EA_location_4</t>
+  </si>
+  <si>
+    <t>EA_location_5</t>
+  </si>
+  <si>
+    <t>facility_1</t>
+  </si>
+  <si>
+    <t>&lt;Facility Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Nom de l'établissement&gt;</t>
+  </si>
+  <si>
+    <t>facility_1_other</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>facility_2</t>
+  </si>
+  <si>
+    <t>facility_2_other</t>
+  </si>
+  <si>
+    <t>facility_3</t>
+  </si>
+  <si>
+    <t>facility_3_other</t>
+  </si>
+  <si>
+    <t>facility_4</t>
+  </si>
+  <si>
+    <t>facility_4_other</t>
+  </si>
+  <si>
+    <t>facility_5</t>
+  </si>
+  <si>
+    <t>facility_5_other</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1280,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="44"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1214,7 +1361,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1292,6 +1438,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1715,692 +1864,692 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="42" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="23" style="42" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.83203125" style="42"/>
-    <col min="12" max="13" width="10.6640625" style="42" customWidth="1"/>
-    <col min="14" max="14" width="12" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.1640625" style="42" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" style="42" customWidth="1"/>
-    <col min="17" max="17" width="34.83203125" style="42" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" style="42" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" style="42" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="42"/>
+    <col min="1" max="1" width="12.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="41" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="23" style="41" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="41"/>
+    <col min="12" max="13" width="10.6640625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="12" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" style="41" customWidth="1"/>
+    <col min="17" max="17" width="34.83203125" style="41" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" style="41" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" style="41" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:245" ht="13" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:245" s="51" customFormat="1" ht="84">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:245" s="50" customFormat="1" ht="84">
+      <c r="A2" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-    </row>
-    <row r="3" spans="1:245" s="53" customFormat="1" ht="42">
-      <c r="A3" s="48" t="s">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+    </row>
+    <row r="3" spans="1:245" s="52" customFormat="1" ht="42">
+      <c r="A3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="52" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="51" t="s">
         <v>220</v>
       </c>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-    </row>
-    <row r="4" spans="1:245" s="53" customFormat="1" ht="84">
-      <c r="A4" s="48" t="s">
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+    </row>
+    <row r="4" spans="1:245" s="52" customFormat="1" ht="84">
+      <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="52" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="51" t="s">
         <v>225</v>
       </c>
       <c r="S4"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-    </row>
-    <row r="5" spans="1:245" s="56" customFormat="1" ht="98">
-      <c r="A5" s="48" t="s">
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+    </row>
+    <row r="5" spans="1:245" s="55" customFormat="1" ht="98">
+      <c r="A5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="55" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-    </row>
-    <row r="6" spans="1:245" s="56" customFormat="1" ht="14">
-      <c r="A6" s="48" t="s">
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+    </row>
+    <row r="6" spans="1:245" s="55" customFormat="1" ht="14">
+      <c r="A6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="48" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="52" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="51" t="s">
         <v>136</v>
       </c>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-    </row>
-    <row r="7" spans="1:245" s="56" customFormat="1" ht="28">
-      <c r="A7" s="48" t="s">
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+    </row>
+    <row r="7" spans="1:245" s="55" customFormat="1" ht="28">
+      <c r="A7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="52" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="51" t="s">
         <v>27</v>
       </c>
       <c r="R7"/>
       <c r="S7"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-    </row>
-    <row r="8" spans="1:245" s="56" customFormat="1" ht="14">
-      <c r="A8" s="48" t="s">
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+    </row>
+    <row r="8" spans="1:245" s="55" customFormat="1" ht="14">
+      <c r="A8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-    </row>
-    <row r="9" spans="1:245" s="56" customFormat="1" ht="154">
-      <c r="A9" s="48" t="s">
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+    </row>
+    <row r="9" spans="1:245" s="55" customFormat="1" ht="154">
+      <c r="A9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="58" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="55" t="s">
+      <c r="I9" s="47"/>
+      <c r="J9" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="52" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="51" t="s">
         <v>138</v>
       </c>
       <c r="R9"/>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-    </row>
-    <row r="10" spans="1:245" s="56" customFormat="1" ht="98">
-      <c r="A10" s="59" t="s">
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+    </row>
+    <row r="10" spans="1:245" s="55" customFormat="1" ht="98">
+      <c r="A10" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="61"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="60"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
       <c r="AA10" s="31"/>
       <c r="AB10" s="31"/>
       <c r="AC10" s="31"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="62"/>
-      <c r="BB10" s="62"/>
-      <c r="BC10" s="62"/>
-      <c r="BD10" s="62"/>
-      <c r="BE10" s="62"/>
-      <c r="BF10" s="62"/>
-      <c r="BG10" s="62"/>
-      <c r="BH10" s="62"/>
-      <c r="BI10" s="62"/>
-      <c r="BJ10" s="62"/>
-      <c r="BK10" s="62"/>
-      <c r="BL10" s="62"/>
-      <c r="BM10" s="62"/>
-      <c r="BN10" s="62"/>
-      <c r="BO10" s="62"/>
-      <c r="BP10" s="62"/>
-      <c r="BQ10" s="62"/>
-      <c r="BR10" s="62"/>
-      <c r="BS10" s="62"/>
-      <c r="BT10" s="62"/>
-      <c r="BU10" s="62"/>
-      <c r="BV10" s="62"/>
-      <c r="BW10" s="62"/>
-      <c r="BX10" s="62"/>
-      <c r="BY10" s="62"/>
-      <c r="BZ10" s="62"/>
-      <c r="CA10" s="62"/>
-      <c r="CB10" s="62"/>
-      <c r="CC10" s="62"/>
-      <c r="CD10" s="62"/>
-      <c r="CE10" s="62"/>
-      <c r="CF10" s="62"/>
-      <c r="CG10" s="62"/>
-      <c r="CH10" s="62"/>
-      <c r="CI10" s="62"/>
-      <c r="CJ10" s="62"/>
-      <c r="CK10" s="62"/>
-      <c r="CL10" s="62"/>
-      <c r="CM10" s="62"/>
-      <c r="CN10" s="62"/>
-      <c r="CO10" s="62"/>
-      <c r="CP10" s="62"/>
-      <c r="CQ10" s="62"/>
-      <c r="CR10" s="62"/>
-      <c r="CS10" s="62"/>
-      <c r="CT10" s="62"/>
-      <c r="CU10" s="62"/>
-      <c r="CV10" s="62"/>
-      <c r="CW10" s="62"/>
-      <c r="CX10" s="62"/>
-      <c r="CY10" s="62"/>
-      <c r="CZ10" s="62"/>
-      <c r="DA10" s="62"/>
-      <c r="DB10" s="62"/>
-      <c r="DC10" s="62"/>
-      <c r="DD10" s="62"/>
-      <c r="DE10" s="62"/>
-      <c r="DF10" s="62"/>
-      <c r="DG10" s="62"/>
-      <c r="DH10" s="62"/>
-      <c r="DI10" s="62"/>
-      <c r="DJ10" s="62"/>
-      <c r="DK10" s="62"/>
-      <c r="DL10" s="62"/>
-      <c r="DM10" s="62"/>
-      <c r="DN10" s="62"/>
-      <c r="DO10" s="62"/>
-      <c r="DP10" s="62"/>
-      <c r="DQ10" s="62"/>
-      <c r="DR10" s="62"/>
-      <c r="DS10" s="62"/>
-      <c r="DT10" s="62"/>
-      <c r="DU10" s="62"/>
-      <c r="DV10" s="62"/>
-      <c r="DW10" s="62"/>
-      <c r="DX10" s="62"/>
-      <c r="DY10" s="62"/>
-      <c r="DZ10" s="62"/>
-      <c r="EA10" s="62"/>
-      <c r="EB10" s="62"/>
-      <c r="EC10" s="62"/>
-      <c r="ED10" s="62"/>
-      <c r="EE10" s="62"/>
-      <c r="EF10" s="62"/>
-      <c r="EG10" s="62"/>
-      <c r="EH10" s="62"/>
-      <c r="EI10" s="62"/>
-      <c r="EJ10" s="62"/>
-      <c r="EK10" s="62"/>
-      <c r="EL10" s="62"/>
-      <c r="EM10" s="62"/>
-      <c r="EN10" s="62"/>
-      <c r="EO10" s="62"/>
-      <c r="EP10" s="62"/>
-      <c r="EQ10" s="62"/>
-      <c r="ER10" s="62"/>
-      <c r="ES10" s="62"/>
-      <c r="ET10" s="62"/>
-      <c r="EU10" s="62"/>
-      <c r="EV10" s="62"/>
-      <c r="EW10" s="62"/>
-      <c r="EX10" s="62"/>
-      <c r="EY10" s="62"/>
-      <c r="EZ10" s="62"/>
-      <c r="FA10" s="62"/>
-      <c r="FB10" s="62"/>
-      <c r="FC10" s="62"/>
-      <c r="FD10" s="62"/>
-      <c r="FE10" s="62"/>
-      <c r="FF10" s="62"/>
-      <c r="FG10" s="62"/>
-      <c r="FH10" s="62"/>
-      <c r="FI10" s="62"/>
-      <c r="FJ10" s="62"/>
-      <c r="FK10" s="62"/>
-      <c r="FL10" s="62"/>
-      <c r="FM10" s="62"/>
-      <c r="FN10" s="62"/>
-      <c r="FO10" s="62"/>
-      <c r="FP10" s="62"/>
-      <c r="FQ10" s="62"/>
-      <c r="FR10" s="62"/>
-      <c r="FS10" s="62"/>
-      <c r="FT10" s="62"/>
-      <c r="FU10" s="62"/>
-      <c r="FV10" s="62"/>
-      <c r="FW10" s="62"/>
-      <c r="FX10" s="62"/>
-      <c r="FY10" s="62"/>
-      <c r="FZ10" s="62"/>
-      <c r="GA10" s="62"/>
-      <c r="GB10" s="62"/>
-      <c r="GC10" s="62"/>
-      <c r="GD10" s="62"/>
-      <c r="GE10" s="62"/>
-      <c r="GF10" s="62"/>
-      <c r="GG10" s="62"/>
-      <c r="GH10" s="62"/>
-      <c r="GI10" s="62"/>
-      <c r="GJ10" s="62"/>
-      <c r="GK10" s="62"/>
-      <c r="GL10" s="62"/>
-      <c r="GM10" s="62"/>
-      <c r="GN10" s="62"/>
-      <c r="GO10" s="62"/>
-      <c r="GP10" s="62"/>
-      <c r="GQ10" s="62"/>
-      <c r="GR10" s="62"/>
-      <c r="GS10" s="62"/>
-      <c r="GT10" s="62"/>
-      <c r="GU10" s="62"/>
-      <c r="GV10" s="62"/>
-      <c r="GW10" s="62"/>
-      <c r="GX10" s="62"/>
-      <c r="GY10" s="62"/>
-      <c r="GZ10" s="62"/>
-      <c r="HA10" s="62"/>
-      <c r="HB10" s="62"/>
-      <c r="HC10" s="62"/>
-      <c r="HD10" s="62"/>
-      <c r="HE10" s="62"/>
-      <c r="HF10" s="62"/>
-      <c r="HG10" s="62"/>
-      <c r="HH10" s="62"/>
-      <c r="HI10" s="62"/>
-      <c r="HJ10" s="62"/>
-      <c r="HK10" s="62"/>
-      <c r="HL10" s="62"/>
-      <c r="HM10" s="62"/>
-      <c r="HN10" s="62"/>
-      <c r="HO10" s="62"/>
-      <c r="HP10" s="62"/>
-      <c r="HQ10" s="62"/>
-      <c r="HR10" s="62"/>
-      <c r="HS10" s="62"/>
-      <c r="HT10" s="62"/>
-      <c r="HU10" s="62"/>
-      <c r="HV10" s="62"/>
-      <c r="HW10" s="62"/>
-      <c r="HX10" s="62"/>
-      <c r="HY10" s="62"/>
-      <c r="HZ10" s="62"/>
-      <c r="IA10" s="62"/>
-      <c r="IB10" s="62"/>
-      <c r="IC10" s="62"/>
-      <c r="ID10" s="62"/>
-      <c r="IE10" s="62"/>
-      <c r="IF10" s="62"/>
-      <c r="IG10" s="62"/>
-      <c r="IH10" s="62"/>
-      <c r="II10" s="62"/>
-      <c r="IJ10" s="62"/>
-      <c r="IK10" s="62"/>
-    </row>
-    <row r="11" spans="1:245" s="56" customFormat="1" ht="14">
-      <c r="A11" s="56" t="s">
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="61"/>
+      <c r="BJ10" s="61"/>
+      <c r="BK10" s="61"/>
+      <c r="BL10" s="61"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
+      <c r="BQ10" s="61"/>
+      <c r="BR10" s="61"/>
+      <c r="BS10" s="61"/>
+      <c r="BT10" s="61"/>
+      <c r="BU10" s="61"/>
+      <c r="BV10" s="61"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="61"/>
+      <c r="BZ10" s="61"/>
+      <c r="CA10" s="61"/>
+      <c r="CB10" s="61"/>
+      <c r="CC10" s="61"/>
+      <c r="CD10" s="61"/>
+      <c r="CE10" s="61"/>
+      <c r="CF10" s="61"/>
+      <c r="CG10" s="61"/>
+      <c r="CH10" s="61"/>
+      <c r="CI10" s="61"/>
+      <c r="CJ10" s="61"/>
+      <c r="CK10" s="61"/>
+      <c r="CL10" s="61"/>
+      <c r="CM10" s="61"/>
+      <c r="CN10" s="61"/>
+      <c r="CO10" s="61"/>
+      <c r="CP10" s="61"/>
+      <c r="CQ10" s="61"/>
+      <c r="CR10" s="61"/>
+      <c r="CS10" s="61"/>
+      <c r="CT10" s="61"/>
+      <c r="CU10" s="61"/>
+      <c r="CV10" s="61"/>
+      <c r="CW10" s="61"/>
+      <c r="CX10" s="61"/>
+      <c r="CY10" s="61"/>
+      <c r="CZ10" s="61"/>
+      <c r="DA10" s="61"/>
+      <c r="DB10" s="61"/>
+      <c r="DC10" s="61"/>
+      <c r="DD10" s="61"/>
+      <c r="DE10" s="61"/>
+      <c r="DF10" s="61"/>
+      <c r="DG10" s="61"/>
+      <c r="DH10" s="61"/>
+      <c r="DI10" s="61"/>
+      <c r="DJ10" s="61"/>
+      <c r="DK10" s="61"/>
+      <c r="DL10" s="61"/>
+      <c r="DM10" s="61"/>
+      <c r="DN10" s="61"/>
+      <c r="DO10" s="61"/>
+      <c r="DP10" s="61"/>
+      <c r="DQ10" s="61"/>
+      <c r="DR10" s="61"/>
+      <c r="DS10" s="61"/>
+      <c r="DT10" s="61"/>
+      <c r="DU10" s="61"/>
+      <c r="DV10" s="61"/>
+      <c r="DW10" s="61"/>
+      <c r="DX10" s="61"/>
+      <c r="DY10" s="61"/>
+      <c r="DZ10" s="61"/>
+      <c r="EA10" s="61"/>
+      <c r="EB10" s="61"/>
+      <c r="EC10" s="61"/>
+      <c r="ED10" s="61"/>
+      <c r="EE10" s="61"/>
+      <c r="EF10" s="61"/>
+      <c r="EG10" s="61"/>
+      <c r="EH10" s="61"/>
+      <c r="EI10" s="61"/>
+      <c r="EJ10" s="61"/>
+      <c r="EK10" s="61"/>
+      <c r="EL10" s="61"/>
+      <c r="EM10" s="61"/>
+      <c r="EN10" s="61"/>
+      <c r="EO10" s="61"/>
+      <c r="EP10" s="61"/>
+      <c r="EQ10" s="61"/>
+      <c r="ER10" s="61"/>
+      <c r="ES10" s="61"/>
+      <c r="ET10" s="61"/>
+      <c r="EU10" s="61"/>
+      <c r="EV10" s="61"/>
+      <c r="EW10" s="61"/>
+      <c r="EX10" s="61"/>
+      <c r="EY10" s="61"/>
+      <c r="EZ10" s="61"/>
+      <c r="FA10" s="61"/>
+      <c r="FB10" s="61"/>
+      <c r="FC10" s="61"/>
+      <c r="FD10" s="61"/>
+      <c r="FE10" s="61"/>
+      <c r="FF10" s="61"/>
+      <c r="FG10" s="61"/>
+      <c r="FH10" s="61"/>
+      <c r="FI10" s="61"/>
+      <c r="FJ10" s="61"/>
+      <c r="FK10" s="61"/>
+      <c r="FL10" s="61"/>
+      <c r="FM10" s="61"/>
+      <c r="FN10" s="61"/>
+      <c r="FO10" s="61"/>
+      <c r="FP10" s="61"/>
+      <c r="FQ10" s="61"/>
+      <c r="FR10" s="61"/>
+      <c r="FS10" s="61"/>
+      <c r="FT10" s="61"/>
+      <c r="FU10" s="61"/>
+      <c r="FV10" s="61"/>
+      <c r="FW10" s="61"/>
+      <c r="FX10" s="61"/>
+      <c r="FY10" s="61"/>
+      <c r="FZ10" s="61"/>
+      <c r="GA10" s="61"/>
+      <c r="GB10" s="61"/>
+      <c r="GC10" s="61"/>
+      <c r="GD10" s="61"/>
+      <c r="GE10" s="61"/>
+      <c r="GF10" s="61"/>
+      <c r="GG10" s="61"/>
+      <c r="GH10" s="61"/>
+      <c r="GI10" s="61"/>
+      <c r="GJ10" s="61"/>
+      <c r="GK10" s="61"/>
+      <c r="GL10" s="61"/>
+      <c r="GM10" s="61"/>
+      <c r="GN10" s="61"/>
+      <c r="GO10" s="61"/>
+      <c r="GP10" s="61"/>
+      <c r="GQ10" s="61"/>
+      <c r="GR10" s="61"/>
+      <c r="GS10" s="61"/>
+      <c r="GT10" s="61"/>
+      <c r="GU10" s="61"/>
+      <c r="GV10" s="61"/>
+      <c r="GW10" s="61"/>
+      <c r="GX10" s="61"/>
+      <c r="GY10" s="61"/>
+      <c r="GZ10" s="61"/>
+      <c r="HA10" s="61"/>
+      <c r="HB10" s="61"/>
+      <c r="HC10" s="61"/>
+      <c r="HD10" s="61"/>
+      <c r="HE10" s="61"/>
+      <c r="HF10" s="61"/>
+      <c r="HG10" s="61"/>
+      <c r="HH10" s="61"/>
+      <c r="HI10" s="61"/>
+      <c r="HJ10" s="61"/>
+      <c r="HK10" s="61"/>
+      <c r="HL10" s="61"/>
+      <c r="HM10" s="61"/>
+      <c r="HN10" s="61"/>
+      <c r="HO10" s="61"/>
+      <c r="HP10" s="61"/>
+      <c r="HQ10" s="61"/>
+      <c r="HR10" s="61"/>
+      <c r="HS10" s="61"/>
+      <c r="HT10" s="61"/>
+      <c r="HU10" s="61"/>
+      <c r="HV10" s="61"/>
+      <c r="HW10" s="61"/>
+      <c r="HX10" s="61"/>
+      <c r="HY10" s="61"/>
+      <c r="HZ10" s="61"/>
+      <c r="IA10" s="61"/>
+      <c r="IB10" s="61"/>
+      <c r="IC10" s="61"/>
+      <c r="ID10" s="61"/>
+      <c r="IE10" s="61"/>
+      <c r="IF10" s="61"/>
+      <c r="IG10" s="61"/>
+      <c r="IH10" s="61"/>
+      <c r="II10" s="61"/>
+      <c r="IJ10" s="61"/>
+      <c r="IK10" s="61"/>
+    </row>
+    <row r="11" spans="1:245" s="55" customFormat="1" ht="14">
+      <c r="A11" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="I11" s="56" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="I11" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="J11" s="63"/>
+      <c r="J11" s="62"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:245" s="56" customFormat="1" ht="42">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:245" s="55" customFormat="1" ht="42">
+      <c r="A12" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>125</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="M12" s="56" t="s">
+      <c r="J12" s="63"/>
+      <c r="M12" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="Q12" s="52" t="s">
+      <c r="Q12" s="51" t="s">
         <v>233</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:245" s="56" customFormat="1" ht="42">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:245" s="55" customFormat="1" ht="42">
+      <c r="A13" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="55" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="M13" s="56" t="s">
+      <c r="J13" s="63"/>
+      <c r="M13" s="55" t="s">
         <v>144</v>
       </c>
       <c r="Q13" s="30" t="s">
@@ -2409,21 +2558,21 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:245" s="56" customFormat="1" ht="42">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:245" s="55" customFormat="1" ht="42">
+      <c r="A14" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="64"/>
-      <c r="M14" s="56" t="s">
+      <c r="J14" s="63"/>
+      <c r="M14" s="55" t="s">
         <v>146</v>
       </c>
       <c r="Q14" s="30" t="s">
@@ -2432,978 +2581,978 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:245" s="56" customFormat="1" ht="28">
-      <c r="A15" s="56" t="s">
+    <row r="15" spans="1:245" s="55" customFormat="1" ht="28">
+      <c r="A15" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="M15" s="56" t="s">
+      <c r="J15" s="63"/>
+      <c r="M15" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="Q15" s="52" t="s">
+      <c r="Q15" s="51" t="s">
         <v>148</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
     </row>
     <row r="16" spans="1:245" ht="13" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
     </row>
     <row r="17" spans="1:19" ht="13" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
     </row>
     <row r="18" spans="1:19" ht="13" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" ht="13" customHeight="1">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
     </row>
     <row r="20" spans="1:19" ht="13" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
     </row>
     <row r="21" spans="1:19" ht="13" customHeight="1">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43" t="s">
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43" t="s">
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
     </row>
     <row r="22" spans="1:19" ht="13" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43" t="s">
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:19" ht="13" customHeight="1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
     </row>
     <row r="24" spans="1:19" ht="13" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
     </row>
     <row r="25" spans="1:19" ht="13" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-    </row>
-    <row r="26" spans="1:19" s="45" customFormat="1" ht="13" customHeight="1">
-      <c r="A26" s="44" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+    </row>
+    <row r="26" spans="1:19" s="44" customFormat="1" ht="13" customHeight="1">
+      <c r="A26" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43">
         <v>35</v>
       </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
     </row>
     <row r="27" spans="1:19" ht="13" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
     </row>
     <row r="28" spans="1:19" ht="13" customHeight="1">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" spans="1:19" ht="13" customHeight="1">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
     </row>
     <row r="30" spans="1:19" ht="13" customHeight="1">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43" t="s">
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
     </row>
     <row r="31" spans="1:19" ht="13" customHeight="1">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43" t="s">
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43" t="s">
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
     </row>
     <row r="32" spans="1:19" ht="13" customHeight="1">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
     </row>
     <row r="33" spans="1:19" ht="13" customHeight="1">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43" t="s">
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43" t="s">
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
     </row>
     <row r="34" spans="1:19" ht="13" customHeight="1">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43" t="s">
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43" t="s">
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43" t="s">
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
     </row>
     <row r="35" spans="1:19" ht="13" customHeight="1">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43" t="s">
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43" t="s">
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
     </row>
     <row r="36" spans="1:19" ht="13" customHeight="1">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43" t="s">
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43" t="s">
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
     </row>
     <row r="37" spans="1:19" ht="13" customHeight="1">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43" t="s">
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43" t="s">
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43" t="s">
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
     </row>
     <row r="38" spans="1:19" ht="13" customHeight="1">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43" t="s">
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="R38" s="43" t="s">
+      <c r="R38" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="S38" s="43"/>
+      <c r="S38" s="42"/>
     </row>
     <row r="39" spans="1:19" ht="13" customHeight="1">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43" t="s">
+      <c r="E39" s="42"/>
+      <c r="F39" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43" t="s">
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="R39" s="43" t="s">
+      <c r="R39" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="S39" s="43"/>
+      <c r="S39" s="42"/>
     </row>
     <row r="40" spans="1:19" ht="13" customHeight="1">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43" t="s">
+      <c r="E40" s="42"/>
+      <c r="F40" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="43" t="s">
+      <c r="G40" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43" t="s">
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="R40" s="43" t="s">
+      <c r="R40" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="S40" s="43"/>
+      <c r="S40" s="42"/>
     </row>
     <row r="41" spans="1:19" ht="13" customHeight="1">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43" t="s">
+      <c r="E41" s="42"/>
+      <c r="F41" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43" t="s">
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="R41" s="43" t="s">
+      <c r="R41" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="S41" s="43"/>
+      <c r="S41" s="42"/>
     </row>
     <row r="42" spans="1:19" ht="13" customHeight="1">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43" t="s">
+      <c r="D42" s="42"/>
+      <c r="E42" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43" t="s">
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43" t="s">
+      <c r="R42" s="42"/>
+      <c r="S42" s="42" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="13" customHeight="1">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
     </row>
     <row r="44" spans="1:19" ht="13" customHeight="1">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
     </row>
     <row r="45" spans="1:19" ht="13" customHeight="1">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
     </row>
     <row r="46" spans="1:19" ht="13" customHeight="1">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
     </row>
     <row r="47" spans="1:19" ht="13" customHeight="1">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3429,66 +3578,66 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="25" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="42"/>
+    <col min="1" max="1" width="9.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="25" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3505,13 +3654,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E349"/>
+  <dimension ref="A1:E349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3524,41 +3673,534 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5">
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="4:5" customFormat="1" ht="14"/>
-    <row r="3" spans="4:5" customFormat="1" ht="14"/>
-    <row r="4" spans="4:5" customFormat="1" ht="14"/>
-    <row r="5" spans="4:5" customFormat="1" ht="14"/>
-    <row r="6" spans="4:5" customFormat="1" ht="14"/>
-    <row r="7" spans="4:5" customFormat="1" ht="14"/>
-    <row r="8" spans="4:5" customFormat="1" ht="14"/>
-    <row r="9" spans="4:5" customFormat="1" ht="14"/>
-    <row r="10" spans="4:5" customFormat="1" ht="14"/>
-    <row r="11" spans="4:5" customFormat="1" ht="14"/>
-    <row r="12" spans="4:5" customFormat="1" ht="14"/>
-    <row r="13" spans="4:5" customFormat="1" ht="14"/>
-    <row r="14" spans="4:5" customFormat="1" ht="14"/>
-    <row r="15" spans="4:5" customFormat="1" ht="14"/>
-    <row r="16" spans="4:5" customFormat="1" ht="14"/>
-    <row r="17" customFormat="1" ht="14"/>
-    <row r="18" customFormat="1" ht="14"/>
-    <row r="19" customFormat="1" ht="14"/>
-    <row r="20" customFormat="1" ht="14"/>
-    <row r="21" customFormat="1" ht="14"/>
-    <row r="22" customFormat="1" ht="14"/>
-    <row r="23" customFormat="1" ht="14"/>
-    <row r="24" customFormat="1" ht="14"/>
-    <row r="25" customFormat="1" ht="14"/>
-    <row r="26" customFormat="1" ht="14"/>
-    <row r="27" customFormat="1" ht="14"/>
-    <row r="28" customFormat="1" ht="14"/>
-    <row r="29" customFormat="1" ht="14"/>
-    <row r="30" customFormat="1" ht="14"/>
-    <row r="31" customFormat="1" ht="14"/>
-    <row r="32" customFormat="1" ht="14"/>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1">
+      <c r="A2" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1">
+      <c r="A3" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customFormat="1">
+      <c r="A4" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" customFormat="1">
+      <c r="A5" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customFormat="1">
+      <c r="A6" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1">
+      <c r="A7" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1">
+      <c r="A8" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1">
+      <c r="A9" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="1">
+      <c r="A10" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1">
+      <c r="A11" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1">
+      <c r="A12" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1">
+      <c r="A13" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1">
+      <c r="A14" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" customFormat="1">
+      <c r="A15" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1">
+      <c r="A16" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" customFormat="1">
+      <c r="A17" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" customFormat="1">
+      <c r="A18" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" customFormat="1">
+      <c r="A19" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customFormat="1">
+      <c r="A20" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" customFormat="1">
+      <c r="A21" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" customFormat="1" ht="14">
+      <c r="A22" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" ht="14">
+      <c r="A23" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" ht="14">
+      <c r="A24" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" customFormat="1" ht="14">
+      <c r="A25" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" customFormat="1" ht="14">
+      <c r="A26" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" customFormat="1" ht="14">
+      <c r="A27" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" ht="14">
+      <c r="A28" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" customFormat="1" ht="14">
+      <c r="A29" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" customFormat="1" ht="14">
+      <c r="A30" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" customFormat="1" ht="14">
+      <c r="A31" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" customFormat="1" ht="14"/>
     <row r="33" customFormat="1" ht="14"/>
     <row r="34" customFormat="1" ht="14"/>
     <row r="35" customFormat="1" ht="14"/>
@@ -5292,7 +5934,7 @@
       <c r="D15" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>211</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -5300,7 +5942,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="47">
+      <c r="A16" s="46">
         <v>6</v>
       </c>
       <c r="B16" s="32">
@@ -5350,7 +5992,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="64" t="s">
         <v>239</v>
       </c>
       <c r="B19" s="32">
